--- a/src/integration-test/resources/simpleImport.xlsx
+++ b/src/integration-test/resources/simpleImport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ollie/code/metadata-catalogue/mc-plugins/mc-plugin-excel/src/integration-test/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adjl/code/maurodatamapper-plugins/mdm-plugin-excel/src/integration-test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C2E5F2-3F93-364E-981A-4A41609D1CEA}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD2B99EB-A2CE-CF41-8346-DA456DB995E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{C2FC2BFD-8D7E-AA4E-A82C-4DBAFEC0EBFC}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20280" activeTab="1" xr2:uid="{C2FC2BFD-8D7E-AA4E-A82C-4DBAFEC0EBFC}"/>
   </bookViews>
   <sheets>
     <sheet name="DataModels" sheetId="1" r:id="rId1"/>
@@ -142,9 +142,6 @@
     <t>yesno</t>
   </si>
   <si>
-    <t>an eumeration</t>
-  </si>
-  <si>
     <t>y</t>
   </si>
   <si>
@@ -218,6 +215,9 @@
   </si>
   <si>
     <t>why not</t>
+  </si>
+  <si>
+    <t>an enumeration</t>
   </si>
 </sst>
 </file>
@@ -428,6 +428,31 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -449,31 +474,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -790,7 +790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22CEC267-E7D6-814F-BC88-B2D73C8A9138}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -805,45 +805,45 @@
     <col min="7" max="7" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="25" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:9" s="10" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="I1" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="24" t="s">
-        <v>57</v>
-      </c>
     </row>
     <row r="2" spans="1:9" s="8" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
     </row>
     <row r="3" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -865,13 +865,13 @@
         <v>22</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -903,8 +903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAD1F446-688D-A94D-97A1-7B95D2004842}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -932,10 +932,10 @@
       <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F1" s="6" t="s">
@@ -944,20 +944,20 @@
       <c r="G1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="21" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -968,13 +968,13 @@
         <v>13</v>
       </c>
       <c r="C2" s="5"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="13"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="22"/>
     </row>
     <row r="3" spans="1:12" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -984,7 +984,7 @@
         <v>24</v>
       </c>
       <c r="K3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -1027,7 +1027,7 @@
         <v>31</v>
       </c>
       <c r="K5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L5" t="s">
         <v>25</v>
@@ -1067,64 +1067,64 @@
         <v>27</v>
       </c>
       <c r="K7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="23">
         <v>0</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="23">
         <v>-1</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" s="23"/>
+      <c r="I8" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="14"/>
-      <c r="I8" t="s">
+      <c r="J8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J8" s="1" t="s">
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" t="s">
+      <c r="J9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J9" s="1" t="s">
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>43</v>
-      </c>
-      <c r="C10" t="s">
-        <v>44</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1133,45 +1133,45 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L10" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="14"/>
+      <c r="A11" s="23"/>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="14"/>
+      <c r="A12" s="23"/>
       <c r="I12">
         <v>2</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1182,13 +1182,13 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" t="s">
         <v>50</v>
-      </c>
-      <c r="C14" t="s">
-        <v>51</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -1200,7 +1200,7 @@
         <v>32</v>
       </c>
       <c r="K14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -1208,16 +1208,16 @@
         <v>32</v>
       </c>
       <c r="B15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" t="s">
         <v>58</v>
       </c>
-      <c r="C15" t="s">
+      <c r="F15" t="s">
         <v>59</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>60</v>
-      </c>
-      <c r="G15" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -1225,10 +1225,10 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" t="s">
         <v>62</v>
-      </c>
-      <c r="C16" t="s">
-        <v>63</v>
       </c>
       <c r="D16">
         <v>0</v>

--- a/src/integration-test/resources/simpleImport.xlsx
+++ b/src/integration-test/resources/simpleImport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adjl/code/maurodatamapper-plugins/mdm-plugin-excel/src/integration-test/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oliverfreeman/code/mauro_data_mapper_plugins/mdm-plugin-excel/src/integration-test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD2B99EB-A2CE-CF41-8346-DA456DB995E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5897E4B7-8005-0646-93FC-BF9FD9E18DC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20280" activeTab="1" xr2:uid="{C2FC2BFD-8D7E-AA4E-A82C-4DBAFEC0EBFC}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20280" activeTab="1" xr2:uid="{C2FC2BFD-8D7E-AA4E-A82C-4DBAFEC0EBFC}"/>
   </bookViews>
   <sheets>
     <sheet name="DataModels" sheetId="1" r:id="rId1"/>
